--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/13/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/13/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.988988988988989</v>
+        <v>0.9388938893889389</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1283.283283283283</v>
+        <v>1275.457545754575</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006106106106106107</v>
+        <v>0.00369036903690369</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4474474474474475</v>
+        <v>0.3078307830783079</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1615.615615615616</v>
+        <v>1619.96199619962</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>646.6466466466467</v>
+        <v>474.977497749775</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>787.7877877877878</v>
+        <v>506.5445544554455</v>
       </c>
     </row>
   </sheetData>
